--- a/VungTrong/SMOTE/Ket qua phan loai khong dao ham.xlsx
+++ b/VungTrong/SMOTE/Ket qua phan loai khong dao ham.xlsx
@@ -411,13 +411,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -425,13 +425,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="B3">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9333333333333333</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -442,10 +442,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C4">
-        <v>0.8571428571428571</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -467,27 +467,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="B6">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="C6">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="D6">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.9318181818181819</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="B7">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="C7">
-        <v>0.9081453634085213</v>
+        <v>0.9686274509803922</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -495,13 +495,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.9318181818181819</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="B8">
-        <v>0.90625</v>
+        <v>0.96875</v>
       </c>
       <c r="C8">
-        <v>0.9081453634085213</v>
+        <v>0.9686274509803922</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -536,13 +536,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -550,13 +550,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.7272727272727273</v>
+        <v>0.8</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8421052631578947</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -567,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -581,10 +581,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.7692307692307693</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -592,27 +592,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.78125</v>
+        <v>0.875</v>
       </c>
       <c r="B6">
-        <v>0.78125</v>
+        <v>0.875</v>
       </c>
       <c r="C6">
-        <v>0.78125</v>
+        <v>0.875</v>
       </c>
       <c r="D6">
-        <v>0.78125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.8484848484848485</v>
+        <v>0.8944444444444445</v>
       </c>
       <c r="B7">
-        <v>0.78125</v>
+        <v>0.875</v>
       </c>
       <c r="C7">
-        <v>0.7695006747638327</v>
+        <v>0.870412267471091</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -620,13 +620,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.8484848484848485</v>
+        <v>0.8944444444444445</v>
       </c>
       <c r="B8">
-        <v>0.78125</v>
+        <v>0.875</v>
       </c>
       <c r="C8">
-        <v>0.7695006747638327</v>
+        <v>0.870412267471091</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -661,13 +661,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.875</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="B2">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.875</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -675,13 +675,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.7</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="B3">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="C3">
-        <v>0.7777777777777778</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="B4">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="C4">
-        <v>0.5454545454545454</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -703,13 +703,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="C5">
-        <v>0.8421052631578947</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.8255681818181819</v>
+        <v>0.8205128205128206</v>
       </c>
       <c r="B7">
         <v>0.78125</v>
       </c>
       <c r="C7">
-        <v>0.7600843965975544</v>
+        <v>0.7809523809523811</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -745,13 +745,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.8255681818181819</v>
+        <v>0.8205128205128206</v>
       </c>
       <c r="B8">
         <v>0.78125</v>
       </c>
       <c r="C8">
-        <v>0.7600843965975544</v>
+        <v>0.7809523809523811</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -786,13 +786,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -800,13 +800,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>0.8</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.8888888888888888</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -817,10 +817,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.625</v>
+        <v>0.875</v>
       </c>
       <c r="C4">
-        <v>0.7692307692307693</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -831,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="C5">
-        <v>0.8571428571428571</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -842,27 +842,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
       <c r="B6">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
       <c r="C6">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
       <c r="D6">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.8818181818181818</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B7">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
       <c r="C7">
-        <v>0.8393419446051025</v>
+        <v>0.8756410256410256</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.8818181818181818</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B8">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
       <c r="C8">
-        <v>0.8393419446051025</v>
+        <v>0.8756410256410256</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -911,13 +911,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.5833333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="B2">
         <v>0.875</v>
       </c>
       <c r="C2">
-        <v>0.7</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -925,13 +925,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.7777777777777778</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="B3">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>0.8235294117647058</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -942,10 +942,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="C4">
-        <v>0.5454545454545454</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -953,13 +953,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="B5">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.875</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -967,27 +967,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C6">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="D6">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.8090277777777778</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C7">
-        <v>0.7359959893048128</v>
+        <v>0.8745098039215686</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -995,13 +995,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.8090277777777778</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C8">
-        <v>0.7359959893048128</v>
+        <v>0.8745098039215686</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -1036,13 +1036,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.5384615384615384</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -1050,13 +1050,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -1067,10 +1067,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.25</v>
+        <v>0.875</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -1078,13 +1078,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.4705882352941176</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="C5">
-        <v>0.64</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -1092,27 +1092,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
       <c r="B6">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
       <c r="D6">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.502262443438914</v>
+        <v>0.8131868131868132</v>
       </c>
       <c r="B7">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>0.4266666666666666</v>
+        <v>0.7589743589743589</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -1120,13 +1120,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.502262443438914</v>
+        <v>0.8131868131868132</v>
       </c>
       <c r="B8">
-        <v>0.53125</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>0.4266666666666666</v>
+        <v>0.7589743589743589</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C2">
-        <v>0.8235294117647058</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="B3">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.7777777777777778</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -1192,10 +1192,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="C4">
-        <v>0.5454545454545454</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -1203,13 +1203,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="B5">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -1217,27 +1217,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.75</v>
+        <v>0.84375</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.84375</v>
       </c>
       <c r="C6">
-        <v>0.75</v>
+        <v>0.84375</v>
       </c>
       <c r="D6">
-        <v>0.75</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.7944444444444445</v>
+        <v>0.8693181818181819</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.84375</v>
       </c>
       <c r="C7">
-        <v>0.7311348781937017</v>
+        <v>0.8456453634085213</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -1245,13 +1245,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.7944444444444445</v>
+        <v>0.8693181818181819</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.84375</v>
       </c>
       <c r="C8">
-        <v>0.7311348781937017</v>
+        <v>0.8456453634085213</v>
       </c>
       <c r="D8">
         <v>32</v>
